--- a/documentation/TestPlan.xlsx
+++ b/documentation/TestPlan.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steven\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="108" windowWidth="22980" windowHeight="9552" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24042" windowHeight="9767" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Form Validation" sheetId="1" r:id="rId1"/>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="105">
   <si>
     <t>Page Name</t>
   </si>
@@ -80,14 +85,274 @@
   </si>
   <si>
     <t>Completed Date</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>char len 0 &lt;= n &lt;= 100</t>
+  </si>
+  <si>
+    <t>field.1</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>field.2</t>
+  </si>
+  <si>
+    <t>field.3</t>
+  </si>
+  <si>
+    <t>field.4</t>
+  </si>
+  <si>
+    <t>field.5</t>
+  </si>
+  <si>
+    <t>(empty field)</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>clicked search twice, unexpected function</t>
+  </si>
+  <si>
+    <t>Cullen</t>
+  </si>
+  <si>
+    <t>"Just type in like as many characters as you can"</t>
+  </si>
+  <si>
+    <t>a x 200</t>
+  </si>
+  <si>
+    <t>"1,2,3,4"</t>
+  </si>
+  <si>
+    <t>field.6</t>
+  </si>
+  <si>
+    <t>field.7</t>
+  </si>
+  <si>
+    <t>field.8</t>
+  </si>
+  <si>
+    <t>"&amp;"</t>
+  </si>
+  <si>
+    <t>Search for desired user input</t>
+  </si>
+  <si>
+    <t>ui.1</t>
+  </si>
+  <si>
+    <t>Spotify-test</t>
+  </si>
+  <si>
+    <t>varchar()</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>"panic!"</t>
+  </si>
+  <si>
+    <t>"+"</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>data.1</t>
+  </si>
+  <si>
+    <t>data.2</t>
+  </si>
+  <si>
+    <t>data.3</t>
+  </si>
+  <si>
+    <t>data.4</t>
+  </si>
+  <si>
+    <t>data.5</t>
+  </si>
+  <si>
+    <t>Go to home page</t>
+  </si>
+  <si>
+    <t>ui.2</t>
+  </si>
+  <si>
+    <t>About</t>
+  </si>
+  <si>
+    <t>Go to about page</t>
+  </si>
+  <si>
+    <t>ui.3</t>
+  </si>
+  <si>
+    <t>about page does not exist</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
+    <t>Spencer</t>
+  </si>
+  <si>
+    <t>Recent Search</t>
+  </si>
+  <si>
+    <t>Sees a list of recent searches</t>
+  </si>
+  <si>
+    <t>ui.4</t>
+  </si>
+  <si>
+    <t>cannot get recent search page</t>
+  </si>
+  <si>
+    <t>Log Out</t>
+  </si>
+  <si>
+    <t>Log out of account</t>
+  </si>
+  <si>
+    <t>ui.5</t>
+  </si>
+  <si>
+    <t>Log In</t>
+  </si>
+  <si>
+    <t>Log in personal account</t>
+  </si>
+  <si>
+    <t>ui.6</t>
+  </si>
+  <si>
+    <t>Top left logo</t>
+  </si>
+  <si>
+    <t>ui.7</t>
+  </si>
+  <si>
+    <t>Review 1</t>
+  </si>
+  <si>
+    <t>go to review website</t>
+  </si>
+  <si>
+    <t>ui.8</t>
+  </si>
+  <si>
+    <t>Review 2</t>
+  </si>
+  <si>
+    <t>ui.9</t>
+  </si>
+  <si>
+    <t>Review 3</t>
+  </si>
+  <si>
+    <t>ui.10</t>
+  </si>
+  <si>
+    <t>Review 4</t>
+  </si>
+  <si>
+    <t>ui.11</t>
+  </si>
+  <si>
+    <t>Testimonial 1</t>
+  </si>
+  <si>
+    <t>go to testimonial</t>
+  </si>
+  <si>
+    <t>ui.12</t>
+  </si>
+  <si>
+    <t>Testimonial 2</t>
+  </si>
+  <si>
+    <t>ui.13</t>
+  </si>
+  <si>
+    <t>Testimonial 3</t>
+  </si>
+  <si>
+    <t>ui.14</t>
+  </si>
+  <si>
+    <t>Testimonial 4</t>
+  </si>
+  <si>
+    <t>ui.15</t>
+  </si>
+  <si>
+    <t>Contact Us 1</t>
+  </si>
+  <si>
+    <t>go to home page</t>
+  </si>
+  <si>
+    <t>ui.16</t>
+  </si>
+  <si>
+    <t>Contact Us 2</t>
+  </si>
+  <si>
+    <t>ui.17</t>
+  </si>
+  <si>
+    <t>Contact Us 3</t>
+  </si>
+  <si>
+    <t>ui.18</t>
+  </si>
+  <si>
+    <t>Contact Us 4</t>
+  </si>
+  <si>
+    <t>ui.19</t>
+  </si>
+  <si>
+    <t>Contact Us 5</t>
+  </si>
+  <si>
+    <t>ui.20</t>
+  </si>
+  <si>
+    <t>Mail</t>
+  </si>
+  <si>
+    <t>ui.21</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -115,8 +380,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -126,6 +393,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -174,7 +444,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -209,7 +479,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -418,43 +688,199 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.44140625" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.77734375" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="29.5546875" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -464,43 +890,193 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
     <col min="4" max="4" width="11.109375" customWidth="1"/>
     <col min="5" max="5" width="12.5546875" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="8" max="8" width="42.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -510,17 +1086,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.21875" customWidth="1"/>
     <col min="2" max="2" width="13.88671875" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" customWidth="1"/>
+    <col min="3" max="3" width="26.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -538,6 +1114,363 @@
       </c>
       <c r="E1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -547,15 +1480,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="19.77734375" customWidth="1"/>
+    <col min="3" max="3" width="50.21875" customWidth="1"/>
     <col min="4" max="4" width="12.21875" customWidth="1"/>
     <col min="5" max="5" width="9.5546875" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
@@ -581,6 +1514,66 @@
         <v>20</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="1">
+        <v>42709</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="1">
+        <v>42709</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="1">
+        <v>42709</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documentation/TestPlan.xlsx
+++ b/documentation/TestPlan.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steven\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24042" windowHeight="9767" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="9768" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Form Validation" sheetId="1" r:id="rId1"/>
@@ -22,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="118">
   <si>
     <t>Page Name</t>
   </si>
@@ -213,9 +208,6 @@
     <t>Recent Search</t>
   </si>
   <si>
-    <t>Sees a list of recent searches</t>
-  </si>
-  <si>
     <t>ui.4</t>
   </si>
   <si>
@@ -337,12 +329,54 @@
   </si>
   <si>
     <t>ui.21</t>
+  </si>
+  <si>
+    <t>char len 0 &lt;= n &lt;= 101</t>
+  </si>
+  <si>
+    <t>field.9</t>
+  </si>
+  <si>
+    <t>”ありがとう”</t>
+  </si>
+  <si>
+    <t>data.6</t>
+  </si>
+  <si>
+    <t>"ありがとう"</t>
+  </si>
+  <si>
+    <t>Go to recent search page</t>
+  </si>
+  <si>
+    <t>ui.22</t>
+  </si>
+  <si>
+    <t>ui.23</t>
+  </si>
+  <si>
+    <t>ui.24</t>
+  </si>
+  <si>
+    <t>ui.25</t>
+  </si>
+  <si>
+    <t>ui.26</t>
+  </si>
+  <si>
+    <t>ui.27</t>
+  </si>
+  <si>
+    <t>ui.28</t>
+  </si>
+  <si>
+    <t>ui.29</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -444,7 +478,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -479,7 +513,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -688,13 +722,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.44140625" customWidth="1"/>
     <col min="2" max="2" width="29.5546875" customWidth="1"/>
@@ -883,6 +917,26 @@
         <v>25</v>
       </c>
     </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -890,13 +944,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.44140625" customWidth="1"/>
     <col min="4" max="4" width="11.109375" customWidth="1"/>
@@ -1079,6 +1133,35 @@
         <v>25</v>
       </c>
     </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H7" t="s">
+        <v>108</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1086,13 +1169,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.21875" customWidth="1"/>
     <col min="2" max="2" width="13.88671875" customWidth="1"/>
@@ -1175,10 +1258,10 @@
         <v>62</v>
       </c>
       <c r="C5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" t="s">
         <v>63</v>
-      </c>
-      <c r="D5" t="s">
-        <v>64</v>
       </c>
       <c r="E5" t="s">
         <v>31</v>
@@ -1189,13 +1272,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" t="s">
         <v>66</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>67</v>
-      </c>
-      <c r="D6" t="s">
-        <v>68</v>
       </c>
       <c r="E6" t="s">
         <v>25</v>
@@ -1206,13 +1289,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" t="s">
         <v>69</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>70</v>
-      </c>
-      <c r="D7" t="s">
-        <v>71</v>
       </c>
       <c r="E7" t="s">
         <v>25</v>
@@ -1223,13 +1306,13 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
         <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E8" t="s">
         <v>25</v>
@@ -1240,13 +1323,13 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" t="s">
         <v>74</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>75</v>
-      </c>
-      <c r="D9" t="s">
-        <v>76</v>
       </c>
       <c r="E9" t="s">
         <v>25</v>
@@ -1257,13 +1340,13 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" t="s">
         <v>77</v>
-      </c>
-      <c r="C10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" t="s">
-        <v>78</v>
       </c>
       <c r="E10" t="s">
         <v>25</v>
@@ -1274,13 +1357,13 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" t="s">
         <v>79</v>
-      </c>
-      <c r="C11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" t="s">
-        <v>80</v>
       </c>
       <c r="E11" t="s">
         <v>25</v>
@@ -1291,13 +1374,13 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" t="s">
         <v>81</v>
-      </c>
-      <c r="C12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" t="s">
-        <v>82</v>
       </c>
       <c r="E12" t="s">
         <v>25</v>
@@ -1308,13 +1391,13 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" t="s">
         <v>83</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>84</v>
-      </c>
-      <c r="D13" t="s">
-        <v>85</v>
       </c>
       <c r="E13" t="s">
         <v>25</v>
@@ -1325,13 +1408,13 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" t="s">
         <v>86</v>
-      </c>
-      <c r="C14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" t="s">
-        <v>87</v>
       </c>
       <c r="E14" t="s">
         <v>25</v>
@@ -1342,13 +1425,13 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" t="s">
         <v>88</v>
-      </c>
-      <c r="C15" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" t="s">
-        <v>89</v>
       </c>
       <c r="E15" t="s">
         <v>25</v>
@@ -1359,13 +1442,13 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" t="s">
         <v>90</v>
-      </c>
-      <c r="C16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D16" t="s">
-        <v>91</v>
       </c>
       <c r="E16" t="s">
         <v>25</v>
@@ -1376,13 +1459,13 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" t="s">
         <v>92</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>93</v>
-      </c>
-      <c r="D17" t="s">
-        <v>94</v>
       </c>
       <c r="E17" t="s">
         <v>25</v>
@@ -1393,13 +1476,13 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" t="s">
         <v>95</v>
-      </c>
-      <c r="C18" t="s">
-        <v>93</v>
-      </c>
-      <c r="D18" t="s">
-        <v>96</v>
       </c>
       <c r="E18" t="s">
         <v>25</v>
@@ -1410,13 +1493,13 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" t="s">
         <v>97</v>
-      </c>
-      <c r="C19" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" t="s">
-        <v>98</v>
       </c>
       <c r="E19" t="s">
         <v>25</v>
@@ -1427,13 +1510,13 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" t="s">
         <v>99</v>
-      </c>
-      <c r="C20" t="s">
-        <v>93</v>
-      </c>
-      <c r="D20" t="s">
-        <v>100</v>
       </c>
       <c r="E20" t="s">
         <v>25</v>
@@ -1444,13 +1527,13 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" t="s">
         <v>101</v>
-      </c>
-      <c r="C21" t="s">
-        <v>93</v>
-      </c>
-      <c r="D21" t="s">
-        <v>102</v>
       </c>
       <c r="E21" t="s">
         <v>25</v>
@@ -1461,15 +1544,151 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" t="s">
         <v>103</v>
       </c>
-      <c r="C22" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" t="s">
-        <v>104</v>
-      </c>
       <c r="E22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" t="s">
+        <v>110</v>
+      </c>
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" t="s">
+        <v>112</v>
+      </c>
+      <c r="E25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" t="s">
+        <v>114</v>
+      </c>
+      <c r="E27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" t="s">
+        <v>115</v>
+      </c>
+      <c r="E28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" t="s">
+        <v>109</v>
+      </c>
+      <c r="D29" t="s">
+        <v>116</v>
+      </c>
+      <c r="E29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" t="s">
+        <v>117</v>
+      </c>
+      <c r="E30" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1483,10 +1702,10 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="50.21875" customWidth="1"/>
     <col min="4" max="4" width="12.21875" customWidth="1"/>
@@ -1559,10 +1778,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" t="s">
         <v>64</v>
-      </c>
-      <c r="C4" t="s">
-        <v>65</v>
       </c>
       <c r="D4">
         <v>1</v>

--- a/documentation/TestPlan.xlsx
+++ b/documentation/TestPlan.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27715"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joecho/Documents/CS411/spotify-playlist-extender/documentation/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="9768" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="23260" windowHeight="9760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Form Validation" sheetId="1" r:id="rId1"/>
@@ -12,12 +17,20 @@
     <sheet name="UI Validation" sheetId="3" r:id="rId3"/>
     <sheet name="Remediation" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="134">
   <si>
     <t>Page Name</t>
   </si>
@@ -371,6 +384,54 @@
   </si>
   <si>
     <t>ui.29</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>issues with calls to the mongo db not returning valid json</t>
+  </si>
+  <si>
+    <t>json1</t>
+  </si>
+  <si>
+    <t>ui2</t>
+  </si>
+  <si>
+    <t>ui3</t>
+  </si>
+  <si>
+    <t>field1</t>
+  </si>
+  <si>
+    <t>ui1</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>login via spotify does not display welcome message in correct place</t>
+  </si>
+  <si>
+    <t>Joe/Cullen</t>
+  </si>
+  <si>
+    <t>ui4</t>
+  </si>
+  <si>
+    <t>rsearches</t>
+  </si>
+  <si>
+    <t>recent search results not displaying in columns</t>
+  </si>
+  <si>
+    <t>mongo1</t>
+  </si>
+  <si>
+    <t>json2</t>
+  </si>
+  <si>
+    <t>index/home not property passing "similar tracks" to similar tracks page</t>
   </si>
 </sst>
 </file>
@@ -478,12 +539,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -513,12 +574,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -724,20 +785,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" customWidth="1"/>
-    <col min="2" max="2" width="29.5546875" customWidth="1"/>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="29.5" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
     <col min="4" max="4" width="22.33203125" customWidth="1"/>
-    <col min="5" max="5" width="22.44140625" customWidth="1"/>
+    <col min="5" max="5" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -757,7 +818,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -777,7 +838,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -797,7 +858,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -817,7 +878,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -837,7 +898,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -857,7 +918,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -877,7 +938,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -897,7 +958,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -917,7 +978,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -950,16 +1011,16 @@
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="8" max="8" width="42.5546875" customWidth="1"/>
+    <col min="8" max="8" width="42.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -988,7 +1049,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -1017,7 +1078,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -1046,7 +1107,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -1075,7 +1136,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -1104,7 +1165,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -1133,7 +1194,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -1175,14 +1236,14 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.21875" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
-    <col min="3" max="3" width="26.109375" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1199,7 +1260,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1216,7 +1277,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1233,7 +1294,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1250,7 +1311,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1267,7 +1328,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1284,7 +1345,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1301,7 +1362,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1318,7 +1379,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1335,7 +1396,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1352,7 +1413,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1369,7 +1430,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1386,7 +1447,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1403,7 +1464,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1420,7 +1481,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -1437,7 +1498,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1454,7 +1515,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1471,7 +1532,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1488,7 +1549,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1505,7 +1566,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1522,7 +1583,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -1539,7 +1600,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1556,7 +1617,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>56</v>
       </c>
@@ -1573,7 +1634,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -1590,7 +1651,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -1607,7 +1668,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -1624,7 +1685,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>62</v>
       </c>
@@ -1641,7 +1702,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>62</v>
       </c>
@@ -1658,7 +1719,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -1675,7 +1736,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>62</v>
       </c>
@@ -1699,21 +1760,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="50.21875" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" customWidth="1"/>
+    <col min="3" max="3" width="50.1640625" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" customWidth="1"/>
+    <col min="5" max="5" width="9.5" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1733,9 +1794,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>123</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -1753,9 +1814,9 @@
         <v>42709</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>121</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -1773,9 +1834,9 @@
         <v>42709</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>122</v>
       </c>
       <c r="B4" t="s">
         <v>63</v>
@@ -1790,6 +1851,86 @@
         <v>60</v>
       </c>
       <c r="F4" s="1">
+        <v>42709</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" s="1">
+        <v>42709</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="1">
+        <v>42709</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="1">
+        <v>42709</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="1">
         <v>42709</v>
       </c>
     </row>
